--- a/Output_data.xlsx
+++ b/Output_data.xlsx
@@ -183,7 +183,7 @@
       <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>42.4</v>
       </c>
@@ -511,9 +511,6 @@
       </c>
       <c r="G8" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>3</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>0.085</v>
